--- a/src/attributions/attributions_ig_traj_76.xlsx
+++ b/src/attributions/attributions_ig_traj_76.xlsx
@@ -1004,46 +1004,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1478493977090538</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.02714599000225322</v>
+        <v>-0.1312794072705492</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2696233515299001</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.06122466728352675</v>
+        <v>0.007675740627754522</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1538821149301478</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.03253903060665757</v>
+        <v>-0.09162142013456404</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.2092013713451965</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0755456694705702</v>
+        <v>0.02010645451059558</v>
       </c>
       <c r="O2" t="n">
         <v>-0</v>
@@ -1055,22 +1055,22 @@
         <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06606065049096142</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.000910500934042734</v>
+        <v>-0.1042507738322135</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-0</v>
+        <v>0.02676475543772707</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.04092038375373211</v>
+        <v>-0.006624392836992566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1079,82 +1079,82 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.06935561620591479</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0107148175121982</v>
+        <v>-0.01229826710515999</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>0.01603021089254992</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01274601804532032</v>
+        <v>-0.002920549678736569</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.04190000624219281</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.0190418183299431</v>
+        <v>-0.03213058706619464</v>
       </c>
       <c r="AM2" t="n">
         <v>-0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.04866463345903858</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.03114541440506126</v>
+        <v>0.05872192759438443</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.03409758980860515</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.04458685470148027</v>
+        <v>-0.1420381477075912</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.09604362001676886</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.1088060678056528</v>
+        <v>-0.03007136911367418</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0</v>
@@ -1166,46 +1166,46 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.07475821034997335</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.002224814058274951</v>
+        <v>-0.01394801060804107</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.09774606981162738</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.006667541053870795</v>
+        <v>0.01691949969733672</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.03901012784647002</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.01452465904742286</v>
+        <v>0.01336856832920403</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0.03872286851754293</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.05143779569907494</v>
+        <v>-0.07789378838805426</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
@@ -1220,73 +1220,73 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.04681876320465645</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.034354326799903</v>
+        <v>-0.06541867347822705</v>
       </c>
       <c r="BW2" t="n">
         <v>-0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.0286815084985256</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.06237899917589633</v>
+        <v>-0.03667635841468975</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.01709600389669419</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.01106526875688916</v>
+        <v>0.03131965819972365</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.03792856407418337</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.03135904789198773</v>
+        <v>0.01977921938127206</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL2" t="n">
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.01802563212660967</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.02099862045481969</v>
+        <v>-0.05526154718428198</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0.04082519066560224</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.000470772157681385</v>
+        <v>0.07604816541436506</v>
       </c>
       <c r="CR2" t="n">
         <v>-0</v>
@@ -1295,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.007942864078717065</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.006826064284458918</v>
+        <v>0.04869620284243264</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>-0.04133256821757724</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.03084079249330967</v>
+        <v>0.01431381162547751</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
@@ -1328,100 +1328,100 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.00456051540904848</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.02654620818732168</v>
+        <v>0.04211323188845133</v>
       </c>
       <c r="DG2" t="n">
         <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0.005094718869252873</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.03476354240176063</v>
+        <v>0.009147846176215805</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.02647169597331619</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.02443221960955305</v>
+        <v>-0.01458424503963165</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0.06318707184845157</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.01985819962188986</v>
+        <v>-0.01288648389114542</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV2" t="n">
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.001664087856063664</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.01468495075649555</v>
+        <v>-0.05106129249218446</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>0.002891590206178732</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.03462507696302879</v>
+        <v>-0.02682700005420498</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE2" t="n">
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.07445813297801916</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.018676863774713</v>
+        <v>0.03505717613743062</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0</v>
+        <v>0.09774273743666885</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.004217987702681766</v>
+        <v>-0.01855732252884039</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
@@ -1436,133 +1436,133 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.008045476896672151</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.04808561458029107</v>
+        <v>0.06391125286757442</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.05342716592926169</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.01568592421392908</v>
+        <v>0.01560759277549106</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.01782543237525133</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.003442895711340047</v>
+        <v>0.03939709954443905</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.0334448179641134</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.02976736263641589</v>
+        <v>0.02489131420894644</v>
       </c>
       <c r="FC2" t="n">
         <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.003169990375999999</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.008995141371787641</v>
+        <v>-0.002947118385050842</v>
       </c>
       <c r="FI2" t="n">
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0.03186331621889533</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.01212821844567587</v>
+        <v>0.01550483445938226</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.06793107709963207</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.01287077625116846</v>
+        <v>0.001061672145293953</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>0.01328256027017473</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.002159384952668117</v>
+        <v>0.002496242915856067</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
         <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.05017981190671385</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.06202680209731354</v>
+        <v>-0.03271345762496612</v>
       </c>
       <c r="GA2" t="n">
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>0.02005732247023465</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
         <v>-0</v>
